--- a/biology/Microbiologie/Rickettsia_conorii/Rickettsia_conorii.xlsx
+++ b/biology/Microbiologie/Rickettsia_conorii/Rickettsia_conorii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rickettsia conorii est une bactérie Gram-négative intracellulaire obligatoire.
 N'entraînant chez le chien qu'une affection inapparente, Rickettsia conorii est transmise à l'homme par la piqûre de la tique du chien, Rhipicephalus sanguineus, hôte intermédiaire et vecteur, déterminant chez lui une fièvre exanthématique du groupe des « fièvres boutonneuses  » : la fièvre boutonneuse méditerranéenne.
@@ -512,11 +524,13 @@
           <t>Distribution géographique et importance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bactérie Rickettsia conorii est présente sur le pourtour du bassin méditerranéen et en particulier dans le Sud de la France où elle provoquait en été le « typhus des vendanges ». Elle existe aussi en Asie Mineure, en Afrique, du bassin congolais au Kenya (« typhus du Kenya ») , en Inde et au Pakistan[1],[2].
-Rickettsia conorii est absent aux Amériques, en Australie et dans le Pacifique, mais des cas importés par retour de voyage de pays endémiques sont possibles[1],[2],[3].
-Bien que pénible pour le malade, la maladie provoquée était considérée historiquement comme relativement bénigne (mortalité inférieure à 2 %), mais les formes graves sont en augmentation depuis les années 1990 (mortalité pouvant dépasser les 3 %, jusqu'à 6% et plus)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bactérie Rickettsia conorii est présente sur le pourtour du bassin méditerranéen et en particulier dans le Sud de la France où elle provoquait en été le « typhus des vendanges ». Elle existe aussi en Asie Mineure, en Afrique, du bassin congolais au Kenya (« typhus du Kenya ») , en Inde et au Pakistan,.
+Rickettsia conorii est absent aux Amériques, en Australie et dans le Pacifique, mais des cas importés par retour de voyage de pays endémiques sont possibles.
+Bien que pénible pour le malade, la maladie provoquée était considérée historiquement comme relativement bénigne (mortalité inférieure à 2 %), mais les formes graves sont en augmentation depuis les années 1990 (mortalité pouvant dépasser les 3 %, jusqu'à 6% et plus).
 Comme pour Rickettsia rickettsii, l'antibiothérapie amoindrit les symptômes et raccourcit l'évolution et la convalescence.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une incubation muette d'une semaine en moyenne, l'invasion peut être progressive, de type pseudo-grippal, ou brutale, avec frissons, fatigue, maux de tête, courbatures et fièvre à 39 - 39,5 °C en quelques heures.
 A la période d'état, on retrouve la triade symptomatique : fièvre, exanthème et  « tache noire » (escarre d'inoculation).
@@ -584,7 +600,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le diagnostic clinique est facile en zone d'endémie mais, ailleurs, la confusion avec la grippe est courante.
 Le laboratoire, du fait de l'immunité croisée, ne peut que dire « fièvre du groupe boutonneux », après agglutination de proteus X2.
@@ -592,7 +610,7 @@
 ompA : gène codant l'« outer membrane protein A » - protéine membranaire spécifique des rickettsies du groupe boutonneux.
 ompB: gène codant l'« outer membrane protein B » - protéine membranaire existant chez toutes les espèces de rickettsie.
 gltA : gène codant la citrate synthétase.
-Les techniques génomiques distinguent plusieurs sous-espèces de R. conorii, dont les principales sont[2] : 
+Les techniques génomiques distinguent plusieurs sous-espèces de R. conorii, dont les principales sont : 
 R. conorii conorii, agent de la fièvre boutonneuse méditerranéenne (pourtour de la méditerranée, Europe centrale et du sud, Afrique du Nord et sub-saharienne) ;
 R. conorii israelensis, agent de la fièvre boutonneuse israélienne (méditerranée orientale).
 R. conorii caspia, agent de la fièvre d'Astrakhan (région de la mer caspienne).
@@ -624,7 +642,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chloramphénicol était le traitement de choix en 1980 mais actuellement la doxycycline est le traitement de référence pour une durée conditionnée par l'évolution clinique.
 </t>
